--- a/assets/template/Kertas_Kerja_template.xlsx
+++ b/assets/template/Kertas_Kerja_template.xlsx
@@ -8,8 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Simulasi Di Jawa" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Simulasi Di Sulawesi" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="kertas_kerja" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
   <si>
     <t xml:space="preserve">LOGO KEMENTERIAN/ LEMBAGA</t>
   </si>
@@ -234,9 +233,6 @@
   </si>
   <si>
     <t xml:space="preserve">(Anggota)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">: 4</t>
   </si>
 </sst>
 </file>
@@ -427,7 +423,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -637,10 +633,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -772,9 +764,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>132480</xdr:colOff>
+      <xdr:colOff>132120</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -784,7 +776,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2691720" y="2228760"/>
-          <a:ext cx="99000" cy="88560"/>
+          <a:ext cx="98640" cy="88200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -825,9 +817,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
+      <xdr:colOff>148680</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -837,7 +829,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4856040" y="2225880"/>
-          <a:ext cx="125280" cy="99360"/>
+          <a:ext cx="124920" cy="99000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -876,9 +868,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
+      <xdr:colOff>151920</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -888,7 +880,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6949440" y="3138840"/>
-          <a:ext cx="99000" cy="88560"/>
+          <a:ext cx="98640" cy="88200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -929,9 +921,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>128520</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -941,7 +933,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4861800" y="3500640"/>
-          <a:ext cx="99000" cy="88560"/>
+          <a:ext cx="98640" cy="88200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -982,9 +974,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
+      <xdr:colOff>148680</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -994,7 +986,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2682000" y="3130920"/>
-          <a:ext cx="125280" cy="99360"/>
+          <a:ext cx="124920" cy="99000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1033,9 +1025,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
+      <xdr:colOff>148680</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1045,7 +1037,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4856040" y="3130920"/>
-          <a:ext cx="125280" cy="99360"/>
+          <a:ext cx="124920" cy="99000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1084,9 +1076,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>138240</xdr:colOff>
+      <xdr:colOff>137880</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:rowOff>147960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1096,7 +1088,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7120440" y="4754160"/>
-          <a:ext cx="125280" cy="99360"/>
+          <a:ext cx="124920" cy="99000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1135,9 +1127,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
+      <xdr:colOff>148680</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1147,7 +1139,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8803440" y="3130920"/>
-          <a:ext cx="125280" cy="99360"/>
+          <a:ext cx="124920" cy="99000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1186,9 +1178,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
+      <xdr:colOff>148680</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1198,7 +1190,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2682000" y="3492720"/>
-          <a:ext cx="125280" cy="99360"/>
+          <a:ext cx="124920" cy="99000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1237,9 +1229,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>138240</xdr:colOff>
+      <xdr:colOff>137880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:rowOff>147960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1249,7 +1241,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7120440" y="4935240"/>
-          <a:ext cx="125280" cy="99360"/>
+          <a:ext cx="124920" cy="99000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1288,9 +1280,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>146520</xdr:colOff>
+      <xdr:colOff>146160</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1300,679 +1292,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7128720" y="4555080"/>
-          <a:ext cx="125280" cy="99360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>23760</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5087880" y="2225880"/>
-          <a:ext cx="125280" cy="99360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>53280</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7181280" y="3138840"/>
-          <a:ext cx="99000" cy="88560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>29520</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>128520</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5093640" y="3500640"/>
-          <a:ext cx="99000" cy="88560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>23760</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2682000" y="3130920"/>
-          <a:ext cx="125280" cy="99360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>23760</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5087880" y="3130920"/>
-          <a:ext cx="125280" cy="99360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>12960</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>48960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>138240</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Rectangle 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7352280" y="4754160"/>
-          <a:ext cx="125280" cy="99360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>23760</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rectangle 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9034920" y="3130920"/>
-          <a:ext cx="125280" cy="99360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>23760</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Rectangle 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2682000" y="3492720"/>
-          <a:ext cx="125280" cy="99360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>12960</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>48960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>138240</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Rectangle 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7352280" y="4935240"/>
-          <a:ext cx="125280" cy="99360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>21240</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>146520</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectangle 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7360560" y="4555080"/>
-          <a:ext cx="125280" cy="99360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>23760</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rectangle 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2682000" y="2225880"/>
-          <a:ext cx="125280" cy="99360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>23760</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Rectangle 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2682000" y="3130920"/>
-          <a:ext cx="125280" cy="99360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>23760</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Rectangle 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5087880" y="3130920"/>
-          <a:ext cx="125280" cy="99360"/>
+          <a:ext cx="124920" cy="99000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2184,8 +1504,8 @@
   </sheetPr>
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N44" activeCellId="0" sqref="N44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M54" activeCellId="0" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2978,10 +2298,7 @@
       <c r="G40" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="H40" s="47" t="n">
-        <f aca="false">(2024-K31)*2%</f>
-        <v>40.48</v>
-      </c>
+      <c r="H40" s="47"/>
       <c r="I40" s="48" t="n">
         <v>0.05</v>
       </c>
@@ -2992,15 +2309,9 @@
       </c>
       <c r="L40" s="47"/>
       <c r="M40" s="47"/>
-      <c r="N40" s="49" t="n">
-        <f aca="false">SUM(D40:M40)</f>
-        <v>40.53</v>
-      </c>
+      <c r="N40" s="49"/>
       <c r="O40" s="49"/>
-      <c r="P40" s="50" t="n">
-        <f aca="false">I31*(1+N40)</f>
-        <v>0</v>
-      </c>
+      <c r="P40" s="50"/>
       <c r="Q40" s="50"/>
       <c r="U40" s="41"/>
     </row>
@@ -3018,10 +2329,7 @@
       <c r="G41" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="H41" s="47" t="n">
-        <f aca="false">(2024-K32)*2%</f>
-        <v>40.48</v>
-      </c>
+      <c r="H41" s="47"/>
       <c r="I41" s="48" t="n">
         <v>0.05</v>
       </c>
@@ -3032,15 +2340,9 @@
       </c>
       <c r="L41" s="47"/>
       <c r="M41" s="47"/>
-      <c r="N41" s="49" t="n">
-        <f aca="false">SUM(D41:M41)</f>
-        <v>40.53</v>
-      </c>
+      <c r="N41" s="49"/>
       <c r="O41" s="49"/>
-      <c r="P41" s="50" t="n">
-        <f aca="false">I32*(1+N41)</f>
-        <v>0</v>
-      </c>
+      <c r="P41" s="50"/>
       <c r="Q41" s="50"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3057,10 +2359,7 @@
       <c r="G42" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="H42" s="47" t="n">
-        <f aca="false">(2024-K33)*2%</f>
-        <v>40.48</v>
-      </c>
+      <c r="H42" s="47"/>
       <c r="I42" s="48" t="n">
         <v>0</v>
       </c>
@@ -3071,1411 +2370,9 @@
       </c>
       <c r="L42" s="47"/>
       <c r="M42" s="47"/>
-      <c r="N42" s="49" t="n">
-        <f aca="false">SUM(D42:M42)</f>
-        <v>40.48</v>
-      </c>
+      <c r="N42" s="49"/>
       <c r="O42" s="49"/>
-      <c r="P42" s="50" t="n">
-        <f aca="false">I33*(1+N42)</f>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="50"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47" t="n">
-        <f aca="false">(2024-K34)*2%</f>
-        <v>40.48</v>
-      </c>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="49" t="n">
-        <f aca="false">SUM(D43:M43)</f>
-        <v>40.48</v>
-      </c>
-      <c r="O43" s="49"/>
-      <c r="P43" s="50" t="n">
-        <f aca="false">I34*(1+N43)</f>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="50"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47" t="n">
-        <f aca="false">(2024-K35)*2%</f>
-        <v>40.48</v>
-      </c>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="49" t="n">
-        <f aca="false">SUM(D44:M44)</f>
-        <v>40.48</v>
-      </c>
-      <c r="O44" s="49"/>
-      <c r="P44" s="50" t="n">
-        <f aca="false">I35*(1+N44)</f>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="50"/>
-      <c r="T44" s="51"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47" t="n">
-        <f aca="false">(2024-K36)*2%</f>
-        <v>40.48</v>
-      </c>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="49" t="n">
-        <f aca="false">SUM(D45:M45)</f>
-        <v>40.48</v>
-      </c>
-      <c r="O45" s="49"/>
-      <c r="P45" s="50" t="n">
-        <f aca="false">I36*(1+N45)</f>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="50"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47" t="n">
-        <f aca="false">(2024-K37)*2%</f>
-        <v>40.48</v>
-      </c>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="49" t="n">
-        <f aca="false">SUM(D46:M46)</f>
-        <v>40.48</v>
-      </c>
-      <c r="O46" s="49"/>
-      <c r="P46" s="50" t="n">
-        <f aca="false">I37*(1+N46)</f>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="50"/>
-    </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="53" t="n">
-        <f aca="false">SUM(P40:Q46)</f>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="53"/>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="53" t="n">
-        <f aca="false">AVERAGE(P40:Q46)</f>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="53"/>
-    </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O49" s="54"/>
-      <c r="P49" s="53" t="n">
-        <f aca="false">P48*O49</f>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="55"/>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" s="52"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="53" t="n">
-        <v>42816000</v>
-      </c>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="55"/>
-    </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="P51" s="56"/>
-      <c r="Q51" s="57"/>
-    </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q52" s="5"/>
-    </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="P53" s="56"/>
-      <c r="Q53" s="57"/>
-    </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8"/>
-      <c r="B54" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="P54" s="56"/>
-      <c r="Q54" s="57"/>
-    </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="P55" s="56"/>
-      <c r="Q55" s="57"/>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="N56" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="P56" s="56"/>
-      <c r="Q56" s="57"/>
-    </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="13"/>
-      <c r="Q57" s="5"/>
-    </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="59"/>
-      <c r="B58" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="N58" s="60"/>
-      <c r="O58" s="60"/>
-      <c r="P58" s="60"/>
-      <c r="Q58" s="62"/>
-    </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q61" s="55"/>
-    </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q62" s="63"/>
-    </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q63" s="55"/>
-    </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q64" s="64"/>
-    </row>
-  </sheetData>
-  <mergeCells count="112">
-    <mergeCell ref="A1:C6"/>
-    <mergeCell ref="D3:Q3"/>
-    <mergeCell ref="D4:Q4"/>
-    <mergeCell ref="D5:Q5"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="A29:Q29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="A38:Q38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:M49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="B54:C54"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
-  </sheetPr>
-  <dimension ref="A1:X64"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="1.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="2.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="3.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="6.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="28.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="18.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="19" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="13.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="22" style="1" width="9.14"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="Q2" s="5"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="11"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8"/>
-      <c r="B8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="11"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="11"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q12" s="5"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="J13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="12"/>
-      <c r="Q13" s="5"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="5"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="5"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-      <c r="C18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="J18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="12"/>
-      <c r="M18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
-      <c r="C19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q19" s="5"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
-      <c r="C20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="J20" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="15"/>
-      <c r="Q20" s="5"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
-      <c r="C21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q21" s="5"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
-      <c r="C22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="Q22" s="5"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
-      <c r="C23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="5"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="Q24" s="5"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="Q25" s="5"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q26" s="5"/>
-      <c r="V26" s="19"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
-      <c r="B27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="N27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q27" s="5"/>
-      <c r="V27" s="20"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
-      <c r="B28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="N28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q28" s="5"/>
-      <c r="V28" s="20"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="V29" s="20"/>
-    </row>
-    <row r="30" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q30" s="26"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="20"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="34"/>
-      <c r="U31" s="19"/>
-      <c r="X31" s="35"/>
-    </row>
-    <row r="32" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="34"/>
-      <c r="U32" s="20"/>
-      <c r="X32" s="35"/>
-    </row>
-    <row r="33" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="27" t="n">
-        <v>3</v>
-      </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="38"/>
-      <c r="U33" s="20"/>
-      <c r="X33" s="39"/>
-    </row>
-    <row r="34" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="38"/>
-      <c r="U34" s="20"/>
-      <c r="X34" s="39"/>
-    </row>
-    <row r="35" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="38"/>
-      <c r="U35" s="41"/>
-      <c r="X35" s="39"/>
-    </row>
-    <row r="36" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="27" t="n">
-        <v>6</v>
-      </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="38"/>
-      <c r="U36" s="42"/>
-    </row>
-    <row r="37" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="38"/>
-      <c r="U37" s="42"/>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="U38" s="41"/>
-    </row>
-    <row r="39" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="H39" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="I39" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="J39" s="24"/>
-      <c r="K39" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="O39" s="24"/>
-      <c r="P39" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="46"/>
-      <c r="U39" s="41"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="47" t="n">
-        <f aca="false">(2024-K31)*2%</f>
-        <v>40.48</v>
-      </c>
-      <c r="I40" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="48"/>
-      <c r="K40" s="47" t="n">
-        <f aca="false">($E$27-P31)*8%</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="49" t="n">
-        <f aca="false">SUM(D40:M40)</f>
-        <v>40.48</v>
-      </c>
-      <c r="O40" s="49"/>
-      <c r="P40" s="50" t="n">
-        <f aca="false">I31*(1+N40)</f>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="50"/>
-      <c r="U40" s="41"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="47" t="n">
-        <f aca="false">(2024-K32)*2%</f>
-        <v>40.48</v>
-      </c>
-      <c r="I41" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="48"/>
-      <c r="K41" s="47" t="n">
-        <f aca="false">($E$27-P32)*8%</f>
-        <v>0</v>
-      </c>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="49" t="n">
-        <f aca="false">SUM(D41:M41)</f>
-        <v>40.48</v>
-      </c>
-      <c r="O41" s="49"/>
-      <c r="P41" s="50" t="n">
-        <f aca="false">I32*(1+N41)</f>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="50"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="47" t="n">
-        <f aca="false">(2024-K33)*2%</f>
-        <v>40.48</v>
-      </c>
-      <c r="I42" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="48"/>
-      <c r="K42" s="47" t="n">
-        <f aca="false">($E$27-P33)*8%</f>
-        <v>0</v>
-      </c>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="49" t="n">
-        <f aca="false">SUM(D42:M42)</f>
-        <v>40.48</v>
-      </c>
-      <c r="O42" s="49"/>
-      <c r="P42" s="50" t="n">
-        <f aca="false">I33*(1+N42)</f>
-        <v>0</v>
-      </c>
+      <c r="P42" s="50"/>
       <c r="Q42" s="50"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4581,11 +2478,8 @@
       <c r="M47" s="15"/>
       <c r="N47" s="15"/>
       <c r="O47" s="15"/>
-      <c r="P47" s="53" t="n">
-        <f aca="false">SUM(P40:Q46)</f>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="53"/>
+      <c r="P47" s="50"/>
+      <c r="Q47" s="50"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="52" t="s">
@@ -4605,11 +2499,8 @@
       <c r="M48" s="15"/>
       <c r="N48" s="15"/>
       <c r="O48" s="15"/>
-      <c r="P48" s="53" t="n">
-        <f aca="false">AVERAGE(P40:Q46)</f>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="53"/>
+      <c r="P48" s="50"/>
+      <c r="Q48" s="50"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="52" t="s">
@@ -4630,13 +2521,10 @@
       <c r="N49" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O49" s="54"/>
-      <c r="P49" s="53" t="n">
-        <f aca="false">P48*O49</f>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="55"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="50"/>
+      <c r="Q49" s="50"/>
+      <c r="R49" s="54"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="52" t="s">
@@ -4654,13 +2542,10 @@
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="53" t="n">
-        <f aca="false">ROUND(P49,-3)</f>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="55"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="50"/>
+      <c r="Q50" s="50"/>
+      <c r="R50" s="54"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8"/>
@@ -4676,8 +2561,8 @@
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
-      <c r="P51" s="56"/>
-      <c r="Q51" s="57"/>
+      <c r="P51" s="55"/>
+      <c r="Q51" s="56"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8"/>
@@ -4711,8 +2596,8 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
-      <c r="P53" s="56"/>
-      <c r="Q53" s="57"/>
+      <c r="P53" s="55"/>
+      <c r="Q53" s="56"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8"/>
@@ -4730,8 +2615,8 @@
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
-      <c r="P54" s="56"/>
-      <c r="Q54" s="57"/>
+      <c r="P54" s="55"/>
+      <c r="Q54" s="56"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8"/>
@@ -4747,13 +2632,13 @@
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
-      <c r="P55" s="56"/>
-      <c r="Q55" s="57"/>
+      <c r="P55" s="55"/>
+      <c r="Q55" s="56"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="58" t="s">
+      <c r="C56" s="57" t="s">
         <v>68</v>
       </c>
       <c r="D56" s="9"/>
@@ -4770,49 +2655,49 @@
       <c r="N56" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="P56" s="56"/>
-      <c r="Q56" s="57"/>
+      <c r="P56" s="55"/>
+      <c r="Q56" s="56"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="13"/>
       <c r="Q57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="59"/>
-      <c r="B58" s="60" t="s">
+      <c r="A58" s="58"/>
+      <c r="B58" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="61" t="s">
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="60" t="s">
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="N58" s="60"/>
-      <c r="O58" s="60"/>
-      <c r="P58" s="60"/>
-      <c r="Q58" s="62"/>
+      <c r="N58" s="59"/>
+      <c r="O58" s="59"/>
+      <c r="P58" s="59"/>
+      <c r="Q58" s="61"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q61" s="55"/>
+      <c r="Q61" s="54"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q62" s="63"/>
+      <c r="Q62" s="62"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q63" s="55"/>
+      <c r="Q63" s="54"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q64" s="64"/>
+      <c r="Q64" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="112">
